--- a/results/gurobi_cplex_comparison/seed_40_k_40.xlsx
+++ b/results/gurobi_cplex_comparison/seed_40_k_40.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.024</v>
+        <v>1.102</v>
       </c>
       <c r="F2">
-        <v>0.038</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.029</v>
+        <v>1.571</v>
       </c>
       <c r="F3">
-        <v>0.052</v>
+        <v>0.417</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.027</v>
+        <v>2.136</v>
       </c>
       <c r="F4">
-        <v>0.042</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.042</v>
+        <v>2.789</v>
       </c>
       <c r="F5">
-        <v>0.059</v>
+        <v>0.6909999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.029</v>
+        <v>3.523</v>
       </c>
       <c r="F6">
-        <v>0.063</v>
+        <v>0.785</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.044</v>
+        <v>4.381</v>
       </c>
       <c r="F7">
-        <v>0.075</v>
+        <v>1.022</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.054</v>
+        <v>5.291</v>
       </c>
       <c r="F8">
-        <v>0.075</v>
+        <v>1.142</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.052</v>
+        <v>6.303</v>
       </c>
       <c r="F9">
-        <v>0.092</v>
+        <v>1.381</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.07099999999999999</v>
+        <v>7.425</v>
       </c>
       <c r="F10">
-        <v>0.077</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.052</v>
+        <v>8.638999999999999</v>
       </c>
       <c r="F11">
-        <v>81.345</v>
+        <v>114.381</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.218</v>
+        <v>10.078</v>
       </c>
       <c r="F12">
-        <v>28.159</v>
+        <v>132.654</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.083</v>
+        <v>11.22</v>
       </c>
       <c r="F13">
-        <v>48.161</v>
+        <v>120.145</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.125</v>
+        <v>12.695</v>
       </c>
       <c r="F14">
-        <v>16.473</v>
+        <v>95.295</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.089</v>
+        <v>14.193</v>
       </c>
       <c r="F15">
-        <v>20.362</v>
+        <v>129.791</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.182</v>
+        <v>15.976</v>
       </c>
       <c r="F16">
-        <v>80.09999999999999</v>
+        <v>104.548</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.132</v>
+        <v>17.792</v>
       </c>
       <c r="F17">
-        <v>54.3</v>
+        <v>59.58</v>
       </c>
     </row>
   </sheetData>
